--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Zp3-Chrna7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Zp3-Chrna7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Zp3</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,10 +537,10 @@
         <v>0.497555</v>
       </c>
       <c r="I2">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,10 +555,10 @@
         <v>0.41109</v>
       </c>
       <c r="O2">
-        <v>0.1290824778912227</v>
+        <v>0.06816352613805679</v>
       </c>
       <c r="P2">
-        <v>0.1290824778912227</v>
+        <v>0.0681635261380568</v>
       </c>
       <c r="Q2">
         <v>0.02272665388333333</v>
@@ -570,10 +567,10 @@
         <v>0.20453988495</v>
       </c>
       <c r="S2">
-        <v>0.06988521667432047</v>
+        <v>0.06816352613805679</v>
       </c>
       <c r="T2">
-        <v>0.06988521667432047</v>
+        <v>0.0681635261380568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,10 +599,10 @@
         <v>0.497555</v>
       </c>
       <c r="I3">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5413997144772235</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,152 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9245393333333333</v>
+        <v>1.873282666666666</v>
       </c>
       <c r="N3">
-        <v>2.773618</v>
+        <v>5.619847999999999</v>
       </c>
       <c r="O3">
-        <v>0.8709175221087773</v>
+        <v>0.9318364738619431</v>
       </c>
       <c r="P3">
-        <v>0.8709175221087773</v>
+        <v>0.9318364738619432</v>
       </c>
       <c r="Q3">
-        <v>0.1533363893322222</v>
+        <v>0.3106870524044444</v>
       </c>
       <c r="R3">
-        <v>1.38002750399</v>
+        <v>2.79618347164</v>
       </c>
       <c r="S3">
-        <v>0.4715144978029029</v>
+        <v>0.9318364738619431</v>
       </c>
       <c r="T3">
-        <v>0.4715144978029029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.140487</v>
-      </c>
-      <c r="H4">
-        <v>0.421461</v>
-      </c>
-      <c r="I4">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J4">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.13703</v>
-      </c>
-      <c r="N4">
-        <v>0.41109</v>
-      </c>
-      <c r="O4">
-        <v>0.1290824778912227</v>
-      </c>
-      <c r="P4">
-        <v>0.1290824778912227</v>
-      </c>
-      <c r="Q4">
-        <v>0.01925093361</v>
-      </c>
-      <c r="R4">
-        <v>0.17325840249</v>
-      </c>
-      <c r="S4">
-        <v>0.05919726121690221</v>
-      </c>
-      <c r="T4">
-        <v>0.05919726121690221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.140487</v>
-      </c>
-      <c r="H5">
-        <v>0.421461</v>
-      </c>
-      <c r="I5">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="J5">
-        <v>0.4586002855227765</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.9245393333333333</v>
-      </c>
-      <c r="N5">
-        <v>2.773618</v>
-      </c>
-      <c r="O5">
-        <v>0.8709175221087773</v>
-      </c>
-      <c r="P5">
-        <v>0.8709175221087773</v>
-      </c>
-      <c r="Q5">
-        <v>0.129885757322</v>
-      </c>
-      <c r="R5">
-        <v>1.168971815898</v>
-      </c>
-      <c r="S5">
-        <v>0.3994030243058743</v>
-      </c>
-      <c r="T5">
-        <v>0.3994030243058743</v>
+        <v>0.9318364738619432</v>
       </c>
     </row>
   </sheetData>
